--- a/data/trans_camb/P44D-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P44D-Estudios-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>-3.9986045355006</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-4.232623991218864</v>
+        <v>-4.232623991218863</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.08870272787649</v>
+        <v>-4.295708167215494</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.995935760455568</v>
+        <v>-6.776597351559269</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-19.07041849194087</v>
+        <v>-17.62589994183642</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-19.56764308039766</v>
+        <v>-18.43371308152048</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-10.02828593906543</v>
+        <v>-10.31828347933976</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-11.07393560076</v>
+        <v>-10.35092430408412</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.380439140554057</v>
+        <v>6.567609493732579</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.045054656981213</v>
+        <v>4.054893641443506</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.3966745880216026</v>
+        <v>-0.2873532786742567</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.362590312547114</v>
+        <v>-2.097458544459337</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8046419264309012</v>
+        <v>1.258236525304316</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.6550213224044847</v>
+        <v>-0.2864226484069418</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>-0.6540335439157949</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.6923110411300826</v>
+        <v>-0.6923110411300825</v>
       </c>
     </row>
     <row r="8">
@@ -714,15 +714,17 @@
       </c>
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
-      <c r="E8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F8" s="6" t="n">
-        <v>-0.9785968280931289</v>
+        <v>-0.9803241017002474</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.9043715967267139</v>
+        <v>-0.9001191617359686</v>
       </c>
     </row>
     <row r="9">
@@ -734,15 +736,17 @@
       </c>
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
-      <c r="E9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="n">
+        <v>3.62710684424014</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>-0.5193741531223369</v>
+        <v>-0.3960704167321819</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.223840226121912</v>
+        <v>2.127572221788877</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.03966632227476245</v>
+        <v>0.03110961896674141</v>
       </c>
     </row>
     <row r="10">
@@ -783,22 +787,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-23.48640657135001</v>
+        <v>-20.33422283467423</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-26.36701612704541</v>
+        <v>-26.89729089073625</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-41.8552221354614</v>
+        <v>-38.79602866810054</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-42.8481138341966</v>
+        <v>-41.51307288748771</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-23.14464228438523</v>
+        <v>-22.48394485630657</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-26.6416224337779</v>
+        <v>-26.32701847964383</v>
       </c>
     </row>
     <row r="12">
@@ -809,22 +813,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.13118591763205</v>
+        <v>10.23066042039176</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.724175215276543</v>
+        <v>2.40188543401958</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.573724080667353</v>
+        <v>4.069547654500466</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-3.56909278793852</v>
+        <v>-2.619478971471368</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.194991353253432</v>
+        <v>4.299464327529923</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.641758420641668</v>
+        <v>-3.307596299296203</v>
       </c>
     </row>
     <row r="13">
@@ -861,20 +865,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7403400544719385</v>
+        <v>-0.7107629426935136</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.7943795964764201</v>
-      </c>
-      <c r="E14" s="6" t="inlineStr"/>
+        <v>-0.8142580143858809</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8878991346459604</v>
+        <v>-0.8729465765023523</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.7395331975875121</v>
+        <v>-0.7269093340587974</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.801560528803391</v>
+        <v>-0.7999836297503267</v>
       </c>
     </row>
     <row r="15">
@@ -885,20 +891,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.478009014320844</v>
+        <v>1.247173550958269</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2928526078265615</v>
-      </c>
-      <c r="E15" s="6" t="inlineStr"/>
+        <v>0.3552731781531381</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.7099227834708903</v>
+      </c>
       <c r="F15" s="6" t="n">
-        <v>-0.3048796738478126</v>
+        <v>-0.1265825825560485</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.4183556212033767</v>
+        <v>0.3859835726783687</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.2915609546072322</v>
+        <v>-0.3051565142657022</v>
       </c>
     </row>
     <row r="16">
@@ -916,7 +924,7 @@
         <v>6.903273580034053</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-11.69792226840946</v>
+        <v>-11.69792226840945</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>-5.446871098521333</v>
@@ -939,22 +947,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-30.26540683853433</v>
+        <v>-31.81113942053823</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-43.09999547423605</v>
+        <v>-44.9294741549661</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-43.57527685743217</v>
+        <v>-42.54814638074421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-56.00922976097698</v>
+        <v>-54.19357426025638</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-24.81268393568016</v>
+        <v>-22.45584804790597</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-39.9583252033802</v>
+        <v>-39.30608300305176</v>
       </c>
     </row>
     <row r="18">
@@ -965,22 +973,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>36.51539509999463</v>
+        <v>35.34049260189369</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.09459472772208</v>
+        <v>12.07763592091639</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>34.25170415892479</v>
+        <v>34.2076309829631</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.847358176826414</v>
+        <v>4.274735252561452</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>26.36254511962093</v>
+        <v>28.23523292725376</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.052104185273791</v>
+        <v>1.444606121386889</v>
       </c>
     </row>
     <row r="19">
@@ -994,7 +1002,7 @@
         <v>0.2102907644773435</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.3563476064073692</v>
+        <v>-0.3563476064073691</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.1186191041217139</v>
@@ -1017,22 +1025,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5665789140801243</v>
+        <v>-0.58364176518625</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7064898567020228</v>
+        <v>-0.7192808693086724</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6975348895991991</v>
+        <v>-0.6618791733298939</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7527154578872843</v>
+        <v>-0.7556102736798656</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.478095127199611</v>
+        <v>-0.4324326791956647</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6797033474160686</v>
+        <v>-0.6705084168112951</v>
       </c>
     </row>
     <row r="21">
@@ -1043,22 +1051,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.766863491382794</v>
+        <v>3.015867149511911</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.140592829624556</v>
+        <v>1.135594980694656</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.411574313817732</v>
+        <v>1.495244514657178</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.2544059206599418</v>
+        <v>0.1938122462808088</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.124665726202867</v>
+        <v>1.377126354330108</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05380763280630841</v>
+        <v>0.0858503485872856</v>
       </c>
     </row>
     <row r="22">
@@ -1099,22 +1107,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.74648774033902</v>
+        <v>-8.77733044598577</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.67682623154498</v>
+        <v>-12.77291586713553</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-18.26114574023813</v>
+        <v>-18.71183272933526</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-20.52497989125978</v>
+        <v>-19.23920940703687</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-10.00959465686541</v>
+        <v>-10.21415303573739</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-13.10080590945859</v>
+        <v>-13.34849878700053</v>
       </c>
     </row>
     <row r="24">
@@ -1125,22 +1133,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.13859850838267</v>
+        <v>10.1009525388651</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.794008859484079</v>
+        <v>3.354944741981304</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.638956655988145</v>
+        <v>2.171497728165711</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-2.751294788617183</v>
+        <v>-3.158295132228738</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.104001753619746</v>
+        <v>4.102847978475895</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.306697047760575</v>
+        <v>-1.542757628003669</v>
       </c>
     </row>
     <row r="25">
@@ -1160,7 +1168,7 @@
         <v>-0.4352414082521422</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>-0.5986699723959081</v>
+        <v>-0.598669972395908</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.171528786892481</v>
@@ -1177,22 +1185,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4563764855429839</v>
+        <v>-0.4683166927440949</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.5620756537824936</v>
+        <v>-0.5904166875515688</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.7684986645772927</v>
+        <v>-0.7624774925002195</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.7489819078749953</v>
+        <v>-0.748747061488389</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4948160441064763</v>
+        <v>-0.4953900265898327</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6199570097933329</v>
+        <v>-0.6275398344636678</v>
       </c>
     </row>
     <row r="27">
@@ -1203,22 +1211,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.569234223692858</v>
+        <v>1.359792691171915</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6135989800573126</v>
+        <v>0.4944007318246884</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.247193867998945</v>
+        <v>0.2421495938067564</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.2576581263546517</v>
+        <v>-0.2753628338293804</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3842332434133982</v>
+        <v>0.3761678251332114</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1349029226440706</v>
+        <v>-0.1414359391984217</v>
       </c>
     </row>
     <row r="28">
